--- a/Data/Dados_previsao_2.xlsx
+++ b/Data/Dados_previsao_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pecorajr/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pecorajr/Documents/GitHub/PPGOLD7037_UFPR/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33797B78-6B4E-3B40-9B59-C7287B60B4B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002E8319-AFB9-C54E-86EB-43AA7E95C091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{60AFE8BA-4FEB-D649-AF4E-B5A7E5B54696}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{60AFE8BA-4FEB-D649-AF4E-B5A7E5B54696}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC87FA4-5D6F-624C-B8E8-52F058E2901E}">
   <dimension ref="A1:C169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -747,7 +747,7 @@
         <v>43831</v>
       </c>
       <c r="B26" s="2">
-        <v>1655</v>
+        <v>893.7</v>
       </c>
       <c r="C26" s="17"/>
     </row>
@@ -756,7 +756,7 @@
         <v>43862</v>
       </c>
       <c r="B27" s="3">
-        <v>2100.5</v>
+        <v>1134.27</v>
       </c>
       <c r="C27" s="17"/>
     </row>
@@ -765,7 +765,7 @@
         <v>43891</v>
       </c>
       <c r="B28" s="3">
-        <v>2385.5</v>
+        <v>1288.17</v>
       </c>
       <c r="C28" s="17"/>
     </row>
@@ -774,7 +774,7 @@
         <v>43922</v>
       </c>
       <c r="B29" s="3">
-        <v>1918.3333333333333</v>
+        <v>1035.9000000000001</v>
       </c>
       <c r="C29" s="17"/>
     </row>
@@ -783,7 +783,7 @@
         <v>43952</v>
       </c>
       <c r="B30" s="3">
-        <v>2181.6666666666665</v>
+        <v>1178.0999999999999</v>
       </c>
       <c r="C30" s="17"/>
     </row>
@@ -792,7 +792,7 @@
         <v>43983</v>
       </c>
       <c r="B31" s="3">
-        <v>2228</v>
+        <v>1203.1200000000001</v>
       </c>
       <c r="C31" s="17"/>
     </row>
@@ -801,7 +801,7 @@
         <v>44013</v>
       </c>
       <c r="B32" s="3">
-        <v>2640</v>
+        <v>1425.6000000000001</v>
       </c>
       <c r="C32" s="17"/>
     </row>
@@ -810,7 +810,7 @@
         <v>44044</v>
       </c>
       <c r="B33" s="3">
-        <v>2156</v>
+        <v>1164.24</v>
       </c>
       <c r="C33" s="17"/>
     </row>
@@ -819,7 +819,7 @@
         <v>44075</v>
       </c>
       <c r="B34" s="3">
-        <v>2804</v>
+        <v>1514.16</v>
       </c>
       <c r="C34" s="17"/>
     </row>
@@ -828,7 +828,7 @@
         <v>44105</v>
       </c>
       <c r="B35" s="3">
-        <v>2463.3333333333335</v>
+        <v>1330.2000000000003</v>
       </c>
       <c r="C35" s="17"/>
     </row>
@@ -837,7 +837,7 @@
         <v>44136</v>
       </c>
       <c r="B36" s="3">
-        <v>3005.6666666666665</v>
+        <v>1623.06</v>
       </c>
       <c r="C36" s="17"/>
     </row>
@@ -846,7 +846,7 @@
         <v>44166</v>
       </c>
       <c r="B37" s="4">
-        <v>3251</v>
+        <v>1755.5400000000002</v>
       </c>
       <c r="C37" s="17"/>
     </row>
@@ -855,7 +855,7 @@
         <v>44197</v>
       </c>
       <c r="B38" s="2">
-        <v>1766.5</v>
+        <v>1536.855</v>
       </c>
       <c r="C38" s="17"/>
     </row>
@@ -864,7 +864,7 @@
         <v>44228</v>
       </c>
       <c r="B39" s="3">
-        <v>2130</v>
+        <v>1853.1</v>
       </c>
       <c r="C39" s="17"/>
     </row>
@@ -873,7 +873,7 @@
         <v>44256</v>
       </c>
       <c r="B40" s="3">
-        <v>2628</v>
+        <v>2286.36</v>
       </c>
       <c r="C40" s="17"/>
     </row>
@@ -882,7 +882,7 @@
         <v>44287</v>
       </c>
       <c r="B41" s="3">
-        <v>2750.5</v>
+        <v>2392.9349999999999</v>
       </c>
       <c r="C41" s="17"/>
     </row>
@@ -891,7 +891,7 @@
         <v>44317</v>
       </c>
       <c r="B42" s="3">
-        <v>2194</v>
+        <v>1908.78</v>
       </c>
       <c r="C42" s="17"/>
     </row>
@@ -900,7 +900,7 @@
         <v>44348</v>
       </c>
       <c r="B43" s="3">
-        <v>2271.3333333333335</v>
+        <v>1976.0600000000002</v>
       </c>
       <c r="C43" s="17"/>
     </row>
@@ -909,7 +909,7 @@
         <v>44378</v>
       </c>
       <c r="B44" s="3">
-        <v>2813.5</v>
+        <v>2447.7449999999999</v>
       </c>
       <c r="C44" s="17"/>
     </row>
@@ -918,7 +918,7 @@
         <v>44409</v>
       </c>
       <c r="B45" s="3">
-        <v>2309</v>
+        <v>2008.83</v>
       </c>
       <c r="C45" s="17"/>
     </row>
@@ -927,7 +927,7 @@
         <v>44440</v>
       </c>
       <c r="B46" s="5">
-        <v>2109.8613333333333</v>
+        <v>1835.57936</v>
       </c>
       <c r="C46" s="17"/>
     </row>
@@ -936,7 +936,7 @@
         <v>44470</v>
       </c>
       <c r="B47" s="3">
-        <v>2259.4113333333335</v>
+        <v>1965.68786</v>
       </c>
       <c r="C47" s="17"/>
     </row>
@@ -945,7 +945,7 @@
         <v>44501</v>
       </c>
       <c r="B48" s="3">
-        <v>3061.3333333333335</v>
+        <v>2663.36</v>
       </c>
       <c r="C48" s="17"/>
     </row>
@@ -954,7 +954,7 @@
         <v>44531</v>
       </c>
       <c r="B49" s="4">
-        <v>3676.6666666666665</v>
+        <v>3198.7</v>
       </c>
       <c r="C49" s="17"/>
     </row>
